--- a/docs/CHRISTIANE/Analise_de_Eventos_ATENDER_CLIENTE.xlsx
+++ b/docs/CHRISTIANE/Analise_de_Eventos_ATENDER_CLIENTE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">Externo</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t xml:space="preserve">A cozinha informa que o pedido está pronto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O copeiro prepara a bebida</t>
   </si>
 </sst>
 </file>
@@ -347,8 +353,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -480,7 +486,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="15"/>
@@ -488,7 +494,24 @@
       <c r="I6" s="12"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+    </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -498,8 +521,8 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
